--- a/techniqo/data_new_ticker/DMART.xlsx
+++ b/techniqo/data_new_ticker/DMART.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G864"/>
+  <dimension ref="A1:G866"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30626,6 +30626,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B865" t="n">
+        <v>2185</v>
+      </c>
+      <c r="C865" t="n">
+        <v>2185</v>
+      </c>
+      <c r="D865" t="n">
+        <v>2130</v>
+      </c>
+      <c r="E865" t="n">
+        <v>2136.15</v>
+      </c>
+      <c r="F865" t="n">
+        <v>1115664</v>
+      </c>
+      <c r="G865" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B866" t="n">
+        <v>2152.55</v>
+      </c>
+      <c r="C866" t="n">
+        <v>2173</v>
+      </c>
+      <c r="D866" t="n">
+        <v>2130.7</v>
+      </c>
+      <c r="E866" t="n">
+        <v>2135.95</v>
+      </c>
+      <c r="F866" t="n">
+        <v>391188</v>
+      </c>
+      <c r="G866" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/DMART.xlsx
+++ b/techniqo/data_new_ticker/DMART.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G866"/>
+  <dimension ref="A1:G868"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30676,6 +30676,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B867" t="n">
+        <v>2147</v>
+      </c>
+      <c r="C867" t="n">
+        <v>2167</v>
+      </c>
+      <c r="D867" t="n">
+        <v>2133.1</v>
+      </c>
+      <c r="E867" t="n">
+        <v>2139.05</v>
+      </c>
+      <c r="F867" t="n">
+        <v>244384</v>
+      </c>
+      <c r="G867" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B868" t="n">
+        <v>2149.9</v>
+      </c>
+      <c r="C868" t="n">
+        <v>2175.95</v>
+      </c>
+      <c r="D868" t="n">
+        <v>2104</v>
+      </c>
+      <c r="E868" t="n">
+        <v>2149.05</v>
+      </c>
+      <c r="F868" t="n">
+        <v>1204363</v>
+      </c>
+      <c r="G868" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
